--- a/signalFiles/binnedAccuracy.xlsx
+++ b/signalFiles/binnedAccuracy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="20760" yWindow="600" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Model</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Bin</t>
   </si>
 </sst>
 </file>
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -380,38 +387,260 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>96.67</v>
+      <c r="C2" s="1">
+        <v>0.95599999999999996</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>97.5</v>
+      <c r="C3" s="1">
+        <v>0.95599999999999996</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>95.5</v>
+      <c r="C4" s="1">
+        <v>0.92600000000000005</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/signalFiles/binnedAccuracy.xlsx
+++ b/signalFiles/binnedAccuracy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Bin</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -369,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.95599999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -424,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -438,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -452,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -466,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.97</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -522,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.98099999999999998</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -536,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>0.96199999999999997</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -592,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1">
-        <v>0.93100000000000005</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -620,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -641,6 +647,58 @@
       </c>
       <c r="E19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <f>AVERAGE(C11,C5,C17)</f>
+        <v>0.9650333333333333</v>
+      </c>
+      <c r="D24" s="1">
+        <f>AVERAGE(C2,C8,C14)</f>
+        <v>0.96133333333333326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(C18,C12,C6)</f>
+        <v>0.97233333333333327</v>
+      </c>
+      <c r="D25" s="1">
+        <f>AVERAGE(C3,C9,C15)</f>
+        <v>0.96266666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <f>AVERAGE(C7,C13,C19)</f>
+        <v>0.96200000000000008</v>
+      </c>
+      <c r="D26" s="1">
+        <f>AVERAGE(C10,C16)</f>
+        <v>0.95350000000000001</v>
       </c>
     </row>
   </sheetData>
